--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_12fce_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_12fce_1_1.xlsx
@@ -2068,7 +2068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="46A"]확인 요망
+    <t xml:space="preserve">[name="46A"]우리 메딕이 두 번째 실종자입니다.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_12fce_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_12fce_1_1.xlsx
@@ -624,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">あなたはただの足手まとい……死に行くようなことはしなくていいわ。
+    <t xml:space="preserve">あなたはただの足手まとい……進んで死地へ行く必要はないわ。
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 용병"]그래도 용병 생황을 꽤 오래 했는데, 포격 유도 드론은 처음 봤어.
+    <t xml:space="preserve">[name="살카즈 용병"]그래도 용병 생활을 꽤 오래 했는데, 포격 유도 드론은 처음 봤어.
 </t>
   </si>
   <si>
